--- a/config/Testcases/TestData.xlsx
+++ b/config/Testcases/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{D02254F4-F685-46DB-949E-26042104F1A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{11E7D45A-8FE8-409B-80C7-77E366570B95}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17850" windowHeight="6540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13044" windowHeight="4236" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Data" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A13:R31"/>
+  <oleSize ref="A13:M24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>Username</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>J4icK5CQwUkAHU1R</t>
+  </si>
+  <si>
+    <t>Mozilla</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -564,14 +567,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -582,7 +585,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
@@ -593,7 +596,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -601,7 +604,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
@@ -609,7 +612,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -617,7 +620,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
@@ -625,7 +628,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -633,7 +636,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -641,7 +644,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -649,7 +652,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -657,7 +660,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -665,7 +668,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -673,7 +676,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -681,7 +684,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -689,7 +692,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -697,7 +700,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -705,7 +708,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -713,7 +716,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -721,7 +724,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -729,7 +732,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
     </row>
   </sheetData>
@@ -748,12 +751,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -761,7 +764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -769,7 +772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -777,7 +780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -799,13 +802,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964692C-ACEF-4FB4-BE4A-BBF9D9D1FEEF}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -813,7 +816,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -827,7 +830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -841,7 +844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -855,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,7 +872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -877,7 +880,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -891,12 +894,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -905,25 +908,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -931,7 +934,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -948,7 +951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -965,7 +968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -982,7 +985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
